--- a/Грузы/Resources/Report.xlsx
+++ b/Грузы/Resources/Report.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Оплаты" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +17,44 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Клиент</t>
+  </si>
+  <si>
+    <t>Номер рейса</t>
+  </si>
+  <si>
+    <t>Сумма и дата оплаты</t>
+  </si>
+  <si>
+    <t>Сумма и дата поступления</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Перевозчик</t>
+  </si>
+  <si>
+    <t>Дельта</t>
+  </si>
+  <si>
+    <t>Сумма и дата оплаты (план)</t>
+  </si>
+  <si>
+    <t>Сумма оплаты и дата (факт)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +84,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -333,11 +435,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>